--- a/10 semester/OpenCL-MPI-Docker-lab/lab3/результаты3.xlsx
+++ b/10 semester/OpenCL-MPI-Docker-lab/lab3/результаты3.xlsx
@@ -8,20 +8,50 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MIET\10 semester\OpenCL-MPI-Docker-lab\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB6834C-2FF7-4141-801C-EB2CED9F4626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B84B4AB-9148-412C-8423-47E1C5E9B5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BoxBlure" sheetId="1" r:id="rId1"/>
+    <sheet name="GausianBlure" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+  <si>
+    <t>Размерность</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 5 5600X 6-Core Processor</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 3080</t>
+  </si>
+  <si>
+    <t>RTX 3080</t>
+  </si>
+  <si>
+    <t>RTX 3080 optimize</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -72,6 +102,1013 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Box Blure</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Global memory</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>AMD Ryzen 5 5600X 6-Core Processor</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>BoxBlure!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>4186</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4348</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4292</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4245</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3927</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4030</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4061</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4603</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4333</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4605</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4166</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4320</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4051</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A9BF-409B-AC17-690B33E497DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>NVIDIA GeForce RTX 3080</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>BoxBlure!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A9BF-409B-AC17-690B33E497DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="760920959"/>
+        <c:axId val="760918463"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="760920959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="760918463"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="760918463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="760920959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80D453E9-EBC6-4263-97C5-0719DAE63F31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,12 +1374,470 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>4186</v>
+      </c>
+      <c r="C2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4348</v>
+      </c>
+      <c r="C3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A15" si="0">A3+1</f>
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4292</v>
+      </c>
+      <c r="C4">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4245</v>
+      </c>
+      <c r="C5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>4144</v>
+      </c>
+      <c r="C6">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>3927</v>
+      </c>
+      <c r="C7">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>4030</v>
+      </c>
+      <c r="C8">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>4007</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>4061</v>
+      </c>
+      <c r="C10">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>4603</v>
+      </c>
+      <c r="C11">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>4333</v>
+      </c>
+      <c r="C12">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>4605</v>
+      </c>
+      <c r="C13">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>A13+1</f>
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>4166</v>
+      </c>
+      <c r="C14">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>4320</v>
+      </c>
+      <c r="C15">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>A15+1</f>
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>4051</v>
+      </c>
+      <c r="C16">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440BE1A2-92CC-4C81-B846-F711F9AAF439}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>28146</v>
+      </c>
+      <c r="C2">
+        <v>52246</v>
+      </c>
+      <c r="D2">
+        <v>9902</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>49985</v>
+      </c>
+      <c r="C3">
+        <v>103846</v>
+      </c>
+      <c r="D3">
+        <v>18737</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A15" si="0">A3+1</f>
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>81253</v>
+      </c>
+      <c r="C4">
+        <v>159444</v>
+      </c>
+      <c r="D4">
+        <v>30298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>120493</v>
+      </c>
+      <c r="C5">
+        <v>231890</v>
+      </c>
+      <c r="D5">
+        <v>43963</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>167811</v>
+      </c>
+      <c r="C6">
+        <v>321931</v>
+      </c>
+      <c r="D6">
+        <v>56577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>228174</v>
+      </c>
+      <c r="C7">
+        <v>428737</v>
+      </c>
+      <c r="D7">
+        <v>73031</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>284937</v>
+      </c>
+      <c r="C8">
+        <v>554716</v>
+      </c>
+      <c r="D8">
+        <v>92591</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>359847</v>
+      </c>
+      <c r="C9">
+        <v>685850</v>
+      </c>
+      <c r="D9">
+        <v>115638</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>443008</v>
+      </c>
+      <c r="C10">
+        <v>839691</v>
+      </c>
+      <c r="D10">
+        <v>139838</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>526499</v>
+      </c>
+      <c r="C11">
+        <v>1004784</v>
+      </c>
+      <c r="D11">
+        <v>168577</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>623222</v>
+      </c>
+      <c r="C12">
+        <v>1186972</v>
+      </c>
+      <c r="D12">
+        <v>196079</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>729673</v>
+      </c>
+      <c r="C13">
+        <v>1387501</v>
+      </c>
+      <c r="D13">
+        <v>229805</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>A13+1</f>
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>839982</v>
+      </c>
+      <c r="C14">
+        <v>1605127</v>
+      </c>
+      <c r="D14">
+        <v>262781</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>959347</v>
+      </c>
+      <c r="C15">
+        <v>1826353</v>
+      </c>
+      <c r="D15">
+        <v>301841</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>A15+1</f>
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1096114</v>
+      </c>
+      <c r="C16">
+        <v>2068437</v>
+      </c>
+      <c r="D16">
+        <v>340642</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>